--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cntf-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cntf-Il6st.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.306379666666667</v>
+        <v>0.08830399999999999</v>
       </c>
       <c r="H2">
-        <v>3.919139</v>
+        <v>0.264912</v>
       </c>
       <c r="I2">
-        <v>0.4034923136874173</v>
+        <v>0.04372337970871547</v>
       </c>
       <c r="J2">
-        <v>0.4034923136874172</v>
+        <v>0.04372337970871546</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.42645866666666</v>
+        <v>20.854426</v>
       </c>
       <c r="N2">
-        <v>112.279376</v>
+        <v>62.563278</v>
       </c>
       <c r="O2">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="P2">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="Q2">
-        <v>48.89316459747377</v>
+        <v>1.841529233504</v>
       </c>
       <c r="R2">
-        <v>440.0384813772639</v>
+        <v>16.573763101536</v>
       </c>
       <c r="S2">
-        <v>0.09746496537048867</v>
+        <v>0.006589830700949003</v>
       </c>
       <c r="T2">
-        <v>0.09746496537048864</v>
+        <v>0.006589830700949002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.306379666666667</v>
+        <v>0.08830399999999999</v>
       </c>
       <c r="H3">
-        <v>3.919139</v>
+        <v>0.264912</v>
       </c>
       <c r="I3">
-        <v>0.4034923136874173</v>
+        <v>0.04372337970871547</v>
       </c>
       <c r="J3">
-        <v>0.4034923136874172</v>
+        <v>0.04372337970871546</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>284.883469</v>
       </c>
       <c r="O3">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="P3">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="Q3">
-        <v>124.0553237570212</v>
+        <v>8.385449948858666</v>
       </c>
       <c r="R3">
-        <v>1116.497913813191</v>
+        <v>75.46904953972799</v>
       </c>
       <c r="S3">
-        <v>0.2472952596450989</v>
+        <v>0.03000696079590097</v>
       </c>
       <c r="T3">
-        <v>0.2472952596450988</v>
+        <v>0.03000696079590097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.306379666666667</v>
+        <v>0.08830399999999999</v>
       </c>
       <c r="H4">
-        <v>3.919139</v>
+        <v>0.264912</v>
       </c>
       <c r="I4">
-        <v>0.4034923136874173</v>
+        <v>0.04372337970871547</v>
       </c>
       <c r="J4">
-        <v>0.4034923136874172</v>
+        <v>0.04372337970871546</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>22.553069</v>
       </c>
       <c r="N4">
-        <v>67.65920699999999</v>
+        <v>67.65920700000001</v>
       </c>
       <c r="O4">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="P4">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="Q4">
-        <v>29.46287076253033</v>
+        <v>1.991526204976</v>
       </c>
       <c r="R4">
-        <v>265.1658368627729</v>
+        <v>17.923735844784</v>
       </c>
       <c r="S4">
-        <v>0.05873208867182985</v>
+        <v>0.007126588211865494</v>
       </c>
       <c r="T4">
-        <v>0.05873208867182983</v>
+        <v>0.007126588211865493</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.217686</v>
       </c>
       <c r="I5">
-        <v>0.3312746929515923</v>
+        <v>0.5310748730197871</v>
       </c>
       <c r="J5">
-        <v>0.3312746929515923</v>
+        <v>0.531074873019787</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.42645866666666</v>
+        <v>20.854426</v>
       </c>
       <c r="N5">
-        <v>112.279376</v>
+        <v>62.563278</v>
       </c>
       <c r="O5">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="P5">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="Q5">
-        <v>40.14219736043732</v>
+        <v>22.367664859412</v>
       </c>
       <c r="R5">
-        <v>361.2797762439359</v>
+        <v>201.308983734708</v>
       </c>
       <c r="S5">
-        <v>0.08002054904485553</v>
+        <v>0.08004169682314805</v>
       </c>
       <c r="T5">
-        <v>0.08002054904485553</v>
+        <v>0.08004169682314803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.217686</v>
       </c>
       <c r="I6">
-        <v>0.3312746929515923</v>
+        <v>0.5310748730197871</v>
       </c>
       <c r="J6">
-        <v>0.3312746929515923</v>
+        <v>0.531074873019787</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>284.883469</v>
       </c>
       <c r="O6">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="P6">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="Q6">
         <v>101.8517277591927</v>
@@ -818,10 +818,10 @@
         <v>916.6655498327339</v>
       </c>
       <c r="S6">
-        <v>0.203034006914886</v>
+        <v>0.3644718912526401</v>
       </c>
       <c r="T6">
-        <v>0.203034006914886</v>
+        <v>0.3644718912526401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.217686</v>
       </c>
       <c r="I7">
-        <v>0.3312746929515923</v>
+        <v>0.5310748730197871</v>
       </c>
       <c r="J7">
-        <v>0.3312746929515923</v>
+        <v>0.531074873019787</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>22.553069</v>
       </c>
       <c r="N7">
-        <v>67.65920699999999</v>
+        <v>67.65920700000001</v>
       </c>
       <c r="O7">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="P7">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="Q7">
-        <v>24.18956479277799</v>
+        <v>24.189564792778</v>
       </c>
       <c r="R7">
         <v>217.706083135002</v>
       </c>
       <c r="S7">
-        <v>0.04822013699185087</v>
+        <v>0.08656128494399888</v>
       </c>
       <c r="T7">
-        <v>0.04822013699185087</v>
+        <v>0.08656128494399887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.57622</v>
       </c>
       <c r="I8">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="J8">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.42645866666666</v>
+        <v>20.854426</v>
       </c>
       <c r="N8">
-        <v>112.279376</v>
+        <v>62.563278</v>
       </c>
       <c r="O8">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="P8">
-        <v>0.2415534622699011</v>
+        <v>0.1507164072139519</v>
       </c>
       <c r="Q8">
-        <v>32.13959711541333</v>
+        <v>17.90852978324</v>
       </c>
       <c r="R8">
-        <v>289.25637403872</v>
+        <v>161.17676804916</v>
       </c>
       <c r="S8">
-        <v>0.0640679478545569</v>
+        <v>0.06408487968985491</v>
       </c>
       <c r="T8">
-        <v>0.06406794785455688</v>
+        <v>0.06408487968985491</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.57622</v>
       </c>
       <c r="I9">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="J9">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>284.883469</v>
       </c>
       <c r="O9">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="P9">
-        <v>0.6128871635375854</v>
+        <v>0.6862909728343718</v>
       </c>
       <c r="Q9">
         <v>81.54694338968667</v>
@@ -1004,10 +1004,10 @@
         <v>733.92249050718</v>
       </c>
       <c r="S9">
-        <v>0.1625578969776006</v>
+        <v>0.2918121207858308</v>
       </c>
       <c r="T9">
-        <v>0.1625578969776006</v>
+        <v>0.2918121207858307</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.57622</v>
       </c>
       <c r="I10">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="J10">
-        <v>0.2652329933609903</v>
+        <v>0.4252017472714976</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>22.553069</v>
       </c>
       <c r="N10">
-        <v>67.65920699999999</v>
+        <v>67.65920700000001</v>
       </c>
       <c r="O10">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="P10">
-        <v>0.1455593741925136</v>
+        <v>0.1629926199516763</v>
       </c>
       <c r="Q10">
         <v>19.36722247306</v>
@@ -1066,10 +1066,10 @@
         <v>174.30500225754</v>
       </c>
       <c r="S10">
-        <v>0.03860714852883286</v>
+        <v>0.06930474679581192</v>
       </c>
       <c r="T10">
-        <v>0.03860714852883285</v>
+        <v>0.0693047467958119</v>
       </c>
     </row>
   </sheetData>
